--- a/08-17-25 to 08-23-25 Madison Schedule.xlsx
+++ b/08-17-25 to 08-23-25 Madison Schedule.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AA61"/>
+  <dimension ref="A1:AA60"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2294,21 +2294,9 @@
         </is>
       </c>
       <c r="T31" t="inlineStr"/>
-      <c r="U31" t="inlineStr">
-        <is>
-          <t>15)</t>
-        </is>
-      </c>
-      <c r="V31" t="inlineStr">
-        <is>
-          <t>Trevor</t>
-        </is>
-      </c>
-      <c r="W31" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
+      <c r="U31" t="inlineStr"/>
+      <c r="V31" t="inlineStr"/>
+      <c r="W31" t="inlineStr"/>
       <c r="X31" t="inlineStr"/>
       <c r="Y31" t="inlineStr"/>
       <c r="Z31" t="inlineStr"/>
@@ -2390,7 +2378,11 @@
       <c r="S33" t="inlineStr"/>
       <c r="T33" t="inlineStr"/>
       <c r="U33" t="inlineStr"/>
-      <c r="V33" t="inlineStr"/>
+      <c r="V33" t="inlineStr">
+        <is>
+          <t>6:30 AM START</t>
+        </is>
+      </c>
       <c r="W33" t="inlineStr"/>
       <c r="X33" t="inlineStr"/>
       <c r="Y33" t="inlineStr"/>
@@ -2441,7 +2433,7 @@
       <c r="U34" t="inlineStr"/>
       <c r="V34" t="inlineStr">
         <is>
-          <t>6:30 AM START</t>
+          <t>MODAS-SCAN</t>
         </is>
       </c>
       <c r="W34" t="inlineStr"/>
@@ -2499,7 +2491,7 @@
       <c r="U35" t="inlineStr"/>
       <c r="V35" t="inlineStr">
         <is>
-          <t>MODAS-SCAN</t>
+          <t>KELLEY #79, GAMMON MOBIL, MADISON</t>
         </is>
       </c>
       <c r="W35" t="inlineStr"/>
@@ -2557,7 +2549,7 @@
       <c r="U36" t="inlineStr"/>
       <c r="V36" t="inlineStr">
         <is>
-          <t>KELLEY #79, GAMMON MOBIL, MADISON</t>
+          <t>901 S GAMMON RD</t>
         </is>
       </c>
       <c r="W36" t="inlineStr"/>
@@ -2614,7 +2606,7 @@
       <c r="U37" t="inlineStr"/>
       <c r="V37" t="inlineStr">
         <is>
-          <t>901 S GAMMON RD</t>
+          <t>https://goo.gl/maps/XZCVbczZyjz</t>
         </is>
       </c>
       <c r="W37" t="inlineStr"/>
@@ -2663,7 +2655,7 @@
       <c r="U38" t="inlineStr"/>
       <c r="V38" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/XZCVbczZyjz</t>
+          <t xml:space="preserve">Please be careful to scan only product barcodes, and not the shelf scan tags  </t>
         </is>
       </c>
       <c r="W38" t="inlineStr"/>
@@ -2700,7 +2692,7 @@
       <c r="U39" t="inlineStr"/>
       <c r="V39" t="inlineStr">
         <is>
-          <t xml:space="preserve">Please be careful to scan only product barcodes, and not the shelf scan tags  </t>
+          <t xml:space="preserve">*IL Meet is 5:00 am at IL office </t>
         </is>
       </c>
       <c r="W39" t="inlineStr"/>
@@ -2731,11 +2723,7 @@
       <c r="S40" t="inlineStr"/>
       <c r="T40" t="inlineStr"/>
       <c r="U40" t="inlineStr"/>
-      <c r="V40" t="inlineStr">
-        <is>
-          <t xml:space="preserve">*IL Meet is 5:00 am at IL office </t>
-        </is>
-      </c>
+      <c r="V40" t="inlineStr"/>
       <c r="W40" t="inlineStr"/>
       <c r="X40" t="inlineStr"/>
       <c r="Y40" t="inlineStr"/>
@@ -2779,9 +2767,22 @@
         </is>
       </c>
       <c r="T41" t="inlineStr"/>
-      <c r="U41" t="inlineStr"/>
-      <c r="V41" t="inlineStr"/>
-      <c r="W41" t="inlineStr"/>
+      <c r="U41" t="inlineStr">
+        <is>
+          <t>1)</t>
+        </is>
+      </c>
+      <c r="V41" t="inlineStr">
+        <is>
+          <t>Qiana</t>
+        </is>
+      </c>
+      <c r="W41" t="inlineStr">
+        <is>
+          <t>@ Store,
+Camry 3, Equip</t>
+        </is>
+      </c>
       <c r="X41" t="inlineStr"/>
       <c r="Y41" t="inlineStr"/>
       <c r="Z41" t="inlineStr"/>
@@ -2826,20 +2827,15 @@
       <c r="T42" t="inlineStr"/>
       <c r="U42" t="inlineStr">
         <is>
-          <t>1)</t>
+          <t>2)</t>
         </is>
       </c>
       <c r="V42" t="inlineStr">
         <is>
-          <t>Qiana</t>
-        </is>
-      </c>
-      <c r="W42" t="inlineStr">
-        <is>
-          <t>@ Store,
-Camry 3, Equip</t>
-        </is>
-      </c>
+          <t>Angela</t>
+        </is>
+      </c>
+      <c r="W42" t="inlineStr"/>
       <c r="X42" t="inlineStr"/>
       <c r="Y42" t="inlineStr"/>
       <c r="Z42" t="inlineStr"/>
@@ -2872,12 +2868,12 @@
       <c r="T43" t="inlineStr"/>
       <c r="U43" t="inlineStr">
         <is>
-          <t>2)</t>
+          <t>3)</t>
         </is>
       </c>
       <c r="V43" t="inlineStr">
         <is>
-          <t>Angela</t>
+          <t>Anisha</t>
         </is>
       </c>
       <c r="W43" t="inlineStr"/>
@@ -2913,15 +2909,20 @@
       <c r="T44" t="inlineStr"/>
       <c r="U44" t="inlineStr">
         <is>
-          <t>3)</t>
+          <t>4)</t>
         </is>
       </c>
       <c r="V44" t="inlineStr">
         <is>
-          <t>Anisha</t>
-        </is>
-      </c>
-      <c r="W44" t="inlineStr"/>
+          <t>Ashley P</t>
+        </is>
+      </c>
+      <c r="W44" t="inlineStr">
+        <is>
+          <t>Driver,
+Red Camry</t>
+        </is>
+      </c>
       <c r="X44" t="inlineStr"/>
       <c r="Y44" t="inlineStr"/>
       <c r="Z44" t="inlineStr"/>
@@ -2958,20 +2959,15 @@
       <c r="T45" t="inlineStr"/>
       <c r="U45" t="inlineStr">
         <is>
-          <t>4)</t>
+          <t>5)</t>
         </is>
       </c>
       <c r="V45" t="inlineStr">
         <is>
-          <t>Ashley P</t>
-        </is>
-      </c>
-      <c r="W45" t="inlineStr">
-        <is>
-          <t>Driver,
-Red Camry</t>
-        </is>
-      </c>
+          <t>Kayla</t>
+        </is>
+      </c>
+      <c r="W45" t="inlineStr"/>
       <c r="X45" t="inlineStr"/>
       <c r="Y45" t="inlineStr"/>
       <c r="Z45" t="inlineStr"/>
@@ -3008,15 +3004,19 @@
       <c r="T46" t="inlineStr"/>
       <c r="U46" t="inlineStr">
         <is>
-          <t>5)</t>
+          <t>6)</t>
         </is>
       </c>
       <c r="V46" t="inlineStr">
         <is>
-          <t>Kayla</t>
-        </is>
-      </c>
-      <c r="W46" t="inlineStr"/>
+          <t>Sarah</t>
+        </is>
+      </c>
+      <c r="W46" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="X46" t="inlineStr"/>
       <c r="Y46" t="inlineStr"/>
       <c r="Z46" t="inlineStr"/>
@@ -3051,21 +3051,9 @@
       </c>
       <c r="S47" t="inlineStr"/>
       <c r="T47" t="inlineStr"/>
-      <c r="U47" t="inlineStr">
-        <is>
-          <t>6)</t>
-        </is>
-      </c>
-      <c r="V47" t="inlineStr">
-        <is>
-          <t>Sarah</t>
-        </is>
-      </c>
-      <c r="W47" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
+      <c r="U47" t="inlineStr"/>
+      <c r="V47" t="inlineStr"/>
+      <c r="W47" t="inlineStr"/>
       <c r="X47" t="inlineStr"/>
       <c r="Y47" t="inlineStr"/>
       <c r="Z47" t="inlineStr"/>
@@ -3142,7 +3130,11 @@
       <c r="S49" t="inlineStr"/>
       <c r="T49" t="inlineStr"/>
       <c r="U49" t="inlineStr"/>
-      <c r="V49" t="inlineStr"/>
+      <c r="V49" t="inlineStr">
+        <is>
+          <t>6:30 AM START</t>
+        </is>
+      </c>
       <c r="W49" t="inlineStr"/>
       <c r="X49" t="inlineStr"/>
       <c r="Y49" t="inlineStr"/>
@@ -3185,7 +3177,7 @@
       <c r="U50" t="inlineStr"/>
       <c r="V50" t="inlineStr">
         <is>
-          <t>6:30 AM START</t>
+          <t>MODAS-SCAN</t>
         </is>
       </c>
       <c r="W50" t="inlineStr"/>
@@ -3226,7 +3218,7 @@
       <c r="U51" t="inlineStr"/>
       <c r="V51" t="inlineStr">
         <is>
-          <t>MODAS-SCAN</t>
+          <t>KELLEY #37, ROCKTON MOBIL</t>
         </is>
       </c>
       <c r="W51" t="inlineStr"/>
@@ -3284,7 +3276,7 @@
       <c r="U52" t="inlineStr"/>
       <c r="V52" t="inlineStr">
         <is>
-          <t>KELLEY #37, ROCKTON MOBIL</t>
+          <t>111 N BLACKHAWK BLVD</t>
         </is>
       </c>
       <c r="W52" t="inlineStr"/>
@@ -3333,7 +3325,7 @@
       <c r="U53" t="inlineStr"/>
       <c r="V53" t="inlineStr">
         <is>
-          <t>111 N BLACKHAWK BLVD</t>
+          <t>https://goo.gl/maps/8XLAYoWmhuu</t>
         </is>
       </c>
       <c r="W53" t="inlineStr"/>
@@ -3386,7 +3378,7 @@
       <c r="U54" t="inlineStr"/>
       <c r="V54" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/8XLAYoWmhuu</t>
+          <t xml:space="preserve">Please be careful to scan only product barcodes, and not the shelf scan tags   </t>
         </is>
       </c>
       <c r="W54" t="inlineStr"/>
@@ -3425,11 +3417,7 @@
       <c r="S55" t="inlineStr"/>
       <c r="T55" t="inlineStr"/>
       <c r="U55" t="inlineStr"/>
-      <c r="V55" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Please be careful to scan only product barcodes, and not the shelf scan tags   </t>
-        </is>
-      </c>
+      <c r="V55" t="inlineStr"/>
       <c r="W55" t="inlineStr"/>
       <c r="X55" t="inlineStr"/>
       <c r="Y55" t="inlineStr"/>
@@ -3465,9 +3453,21 @@
       </c>
       <c r="S56" t="inlineStr"/>
       <c r="T56" t="inlineStr"/>
-      <c r="U56" t="inlineStr"/>
-      <c r="V56" t="inlineStr"/>
-      <c r="W56" t="inlineStr"/>
+      <c r="U56" t="inlineStr">
+        <is>
+          <t>1)</t>
+        </is>
+      </c>
+      <c r="V56" t="inlineStr">
+        <is>
+          <t>Mike G</t>
+        </is>
+      </c>
+      <c r="W56" t="inlineStr">
+        <is>
+          <t>Equip</t>
+        </is>
+      </c>
       <c r="X56" t="inlineStr"/>
       <c r="Y56" t="inlineStr"/>
       <c r="Z56" t="inlineStr"/>
@@ -3504,19 +3504,15 @@
       <c r="T57" t="inlineStr"/>
       <c r="U57" t="inlineStr">
         <is>
-          <t>1)</t>
+          <t>2)</t>
         </is>
       </c>
       <c r="V57" t="inlineStr">
         <is>
-          <t>Mike G</t>
-        </is>
-      </c>
-      <c r="W57" t="inlineStr">
-        <is>
-          <t>Equip</t>
-        </is>
-      </c>
+          <t>Emily L</t>
+        </is>
+      </c>
+      <c r="W57" t="inlineStr"/>
       <c r="X57" t="inlineStr"/>
       <c r="Y57" t="inlineStr"/>
       <c r="Z57" t="inlineStr"/>
@@ -3553,12 +3549,12 @@
       <c r="T58" t="inlineStr"/>
       <c r="U58" t="inlineStr">
         <is>
-          <t>2)</t>
+          <t>3)</t>
         </is>
       </c>
       <c r="V58" t="inlineStr">
         <is>
-          <t>Emily L</t>
+          <t>Joseph</t>
         </is>
       </c>
       <c r="W58" t="inlineStr"/>
@@ -3590,12 +3586,12 @@
       <c r="T59" t="inlineStr"/>
       <c r="U59" t="inlineStr">
         <is>
-          <t>3)</t>
+          <t>4)</t>
         </is>
       </c>
       <c r="V59" t="inlineStr">
         <is>
-          <t>Joseph</t>
+          <t>Justin Lee</t>
         </is>
       </c>
       <c r="W59" t="inlineStr"/>
@@ -3627,12 +3623,12 @@
       <c r="T60" t="inlineStr"/>
       <c r="U60" t="inlineStr">
         <is>
-          <t>4)</t>
+          <t>5)</t>
         </is>
       </c>
       <c r="V60" t="inlineStr">
         <is>
-          <t>Justin Lee</t>
+          <t>Tina E</t>
         </is>
       </c>
       <c r="W60" t="inlineStr"/>
@@ -3641,43 +3637,6 @@
       <c r="Z60" t="inlineStr"/>
       <c r="AA60" t="inlineStr"/>
     </row>
-    <row r="61">
-      <c r="A61" t="inlineStr"/>
-      <c r="B61" t="inlineStr"/>
-      <c r="C61" t="inlineStr"/>
-      <c r="D61" t="inlineStr"/>
-      <c r="E61" t="inlineStr"/>
-      <c r="F61" t="inlineStr"/>
-      <c r="G61" t="inlineStr"/>
-      <c r="H61" t="inlineStr"/>
-      <c r="I61" t="inlineStr"/>
-      <c r="J61" t="inlineStr"/>
-      <c r="K61" t="inlineStr"/>
-      <c r="L61" t="inlineStr"/>
-      <c r="M61" t="inlineStr"/>
-      <c r="N61" t="inlineStr"/>
-      <c r="O61" t="inlineStr"/>
-      <c r="P61" t="inlineStr"/>
-      <c r="Q61" t="inlineStr"/>
-      <c r="R61" t="inlineStr"/>
-      <c r="S61" t="inlineStr"/>
-      <c r="T61" t="inlineStr"/>
-      <c r="U61" t="inlineStr">
-        <is>
-          <t>5)</t>
-        </is>
-      </c>
-      <c r="V61" t="inlineStr">
-        <is>
-          <t>Tina E</t>
-        </is>
-      </c>
-      <c r="W61" t="inlineStr"/>
-      <c r="X61" t="inlineStr"/>
-      <c r="Y61" t="inlineStr"/>
-      <c r="Z61" t="inlineStr"/>
-      <c r="AA61" t="inlineStr"/>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/08-17-25 to 08-23-25 Madison Schedule.xlsx
+++ b/08-17-25 to 08-23-25 Madison Schedule.xlsx
@@ -1585,7 +1585,8 @@
       <c r="O21" t="inlineStr">
         <is>
           <t>Driver,
-Silver Van</t>
+Silver Van
+Train w/ Brianna</t>
         </is>
       </c>
       <c r="P21" t="inlineStr"/>

--- a/08-17-25 to 08-23-25 Madison Schedule.xlsx
+++ b/08-17-25 to 08-23-25 Madison Schedule.xlsx
@@ -2025,7 +2025,11 @@
           <t>Brianna</t>
         </is>
       </c>
-      <c r="K27" t="inlineStr"/>
+      <c r="K27" t="inlineStr">
+        <is>
+          <t>Silver Van - tail light</t>
+        </is>
+      </c>
       <c r="L27" t="inlineStr"/>
       <c r="M27" t="inlineStr"/>
       <c r="N27" t="inlineStr">

--- a/08-17-25 to 08-23-25 Madison Schedule.xlsx
+++ b/08-17-25 to 08-23-25 Madison Schedule.xlsx
@@ -992,7 +992,11 @@
       <c r="G14" t="inlineStr"/>
       <c r="H14" t="inlineStr"/>
       <c r="I14" t="inlineStr"/>
-      <c r="J14" t="inlineStr"/>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>Sarah - Car swap - drop at Meinke</t>
+        </is>
+      </c>
       <c r="K14" t="inlineStr"/>
       <c r="L14" t="inlineStr"/>
       <c r="M14" t="inlineStr"/>

--- a/08-17-25 to 08-23-25 Madison Schedule.xlsx
+++ b/08-17-25 to 08-23-25 Madison Schedule.xlsx
@@ -1022,7 +1022,7 @@
       <c r="Y14" t="inlineStr"/>
       <c r="Z14" t="inlineStr">
         <is>
-          <t>Set up in break room - Count liquor near end of store. Count meat Dairy first - Aisle 4 then vendors.</t>
+          <t>Set up in break room - Count liquor near end of store.</t>
         </is>
       </c>
       <c r="AA14" t="inlineStr"/>
@@ -1050,21 +1050,9 @@
         </is>
       </c>
       <c r="H15" t="inlineStr"/>
-      <c r="I15" t="inlineStr">
-        <is>
-          <t>1)</t>
-        </is>
-      </c>
-      <c r="J15" t="inlineStr">
-        <is>
-          <t>Mike G</t>
-        </is>
-      </c>
-      <c r="K15" t="inlineStr">
-        <is>
-          <t>Equip</t>
-        </is>
-      </c>
+      <c r="I15" t="inlineStr"/>
+      <c r="J15" t="inlineStr"/>
+      <c r="K15" t="inlineStr"/>
       <c r="L15" t="inlineStr"/>
       <c r="M15" t="inlineStr"/>
       <c r="N15" t="inlineStr">
@@ -1099,7 +1087,11 @@
       <c r="W15" t="inlineStr"/>
       <c r="X15" t="inlineStr"/>
       <c r="Y15" t="inlineStr"/>
-      <c r="Z15" t="inlineStr"/>
+      <c r="Z15" t="inlineStr">
+        <is>
+          <t>Count meat Dairy first - Aisle 4 then vendors.</t>
+        </is>
+      </c>
       <c r="AA15" t="inlineStr"/>
     </row>
     <row r="16">
@@ -1121,15 +1113,19 @@
       <c r="H16" t="inlineStr"/>
       <c r="I16" t="inlineStr">
         <is>
-          <t>2)</t>
+          <t>1)</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>Anisha</t>
-        </is>
-      </c>
-      <c r="K16" t="inlineStr"/>
+          <t>Mike G</t>
+        </is>
+      </c>
+      <c r="K16" t="inlineStr">
+        <is>
+          <t>Equip</t>
+        </is>
+      </c>
       <c r="L16" t="inlineStr"/>
       <c r="M16" t="inlineStr"/>
       <c r="N16" t="inlineStr"/>
@@ -1156,22 +1152,9 @@
       <c r="V16" t="inlineStr"/>
       <c r="W16" t="inlineStr"/>
       <c r="X16" t="inlineStr"/>
-      <c r="Y16" t="inlineStr">
-        <is>
-          <t>1)</t>
-        </is>
-      </c>
-      <c r="Z16" t="inlineStr">
-        <is>
-          <t>Nate</t>
-        </is>
-      </c>
-      <c r="AA16" t="inlineStr">
-        <is>
-          <t>@ Store Driver 1/2
-Optima, Equip</t>
-        </is>
-      </c>
+      <c r="Y16" t="inlineStr"/>
+      <c r="Z16" t="inlineStr"/>
+      <c r="AA16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr"/>
@@ -1197,12 +1180,12 @@
       <c r="H17" t="inlineStr"/>
       <c r="I17" t="inlineStr">
         <is>
-          <t>3)</t>
+          <t>2)</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>Ashley P</t>
+          <t>Anisha</t>
         </is>
       </c>
       <c r="K17" t="inlineStr"/>
@@ -1259,18 +1242,18 @@
       <c r="X17" t="inlineStr"/>
       <c r="Y17" t="inlineStr">
         <is>
-          <t>2)</t>
+          <t>1)</t>
         </is>
       </c>
       <c r="Z17" t="inlineStr">
         <is>
-          <t>Angela</t>
+          <t>Nate</t>
         </is>
       </c>
       <c r="AA17" t="inlineStr">
         <is>
-          <t>Driver, 1/2
-Silver Van</t>
+          <t>@ Store Driver 1/2
+Optima, Equip</t>
         </is>
       </c>
     </row>
@@ -1297,12 +1280,12 @@
       <c r="H18" t="inlineStr"/>
       <c r="I18" t="inlineStr">
         <is>
-          <t>4)</t>
+          <t>3)</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>Emily L</t>
+          <t>Ashley P</t>
         </is>
       </c>
       <c r="K18" t="inlineStr"/>
@@ -1353,15 +1336,20 @@
       <c r="X18" t="inlineStr"/>
       <c r="Y18" t="inlineStr">
         <is>
-          <t>3)</t>
+          <t>2)</t>
         </is>
       </c>
       <c r="Z18" t="inlineStr">
         <is>
-          <t>Anisha</t>
-        </is>
-      </c>
-      <c r="AA18" t="inlineStr"/>
+          <t>Angela</t>
+        </is>
+      </c>
+      <c r="AA18" t="inlineStr">
+        <is>
+          <t>Driver, 1/2
+Silver Van</t>
+        </is>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr"/>
@@ -1382,12 +1370,12 @@
       <c r="H19" t="inlineStr"/>
       <c r="I19" t="inlineStr">
         <is>
-          <t>5)</t>
+          <t>4)</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>Laci</t>
+          <t>Emily L</t>
         </is>
       </c>
       <c r="K19" t="inlineStr"/>
@@ -1438,20 +1426,15 @@
       <c r="X19" t="inlineStr"/>
       <c r="Y19" t="inlineStr">
         <is>
-          <t>4)</t>
+          <t>3)</t>
         </is>
       </c>
       <c r="Z19" t="inlineStr">
         <is>
-          <t>Ashley P</t>
-        </is>
-      </c>
-      <c r="AA19" t="inlineStr">
-        <is>
-          <t>Driver, 1/2
-Silver Van</t>
-        </is>
-      </c>
+          <t>Anisha</t>
+        </is>
+      </c>
+      <c r="AA19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr"/>
@@ -1472,12 +1455,12 @@
       <c r="H20" t="inlineStr"/>
       <c r="I20" t="inlineStr">
         <is>
-          <t>6)</t>
+          <t>5)</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>Michael N</t>
+          <t>Laci</t>
         </is>
       </c>
       <c r="K20" t="inlineStr"/>
@@ -1528,17 +1511,18 @@
       <c r="X20" t="inlineStr"/>
       <c r="Y20" t="inlineStr">
         <is>
-          <t>5)</t>
+          <t>4)</t>
         </is>
       </c>
       <c r="Z20" t="inlineStr">
         <is>
-          <t>Brianna</t>
+          <t>Ashley P</t>
         </is>
       </c>
       <c r="AA20" t="inlineStr">
         <is>
-          <t>@ Store</t>
+          <t>Driver, 1/2
+Silver Van</t>
         </is>
       </c>
     </row>
@@ -1566,12 +1550,12 @@
       <c r="H21" t="inlineStr"/>
       <c r="I21" t="inlineStr">
         <is>
-          <t>7)</t>
+          <t>6)</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>Qiana</t>
+          <t>Michael N</t>
         </is>
       </c>
       <c r="K21" t="inlineStr"/>
@@ -1630,15 +1614,19 @@
       <c r="X21" t="inlineStr"/>
       <c r="Y21" t="inlineStr">
         <is>
-          <t>6)</t>
+          <t>5)</t>
         </is>
       </c>
       <c r="Z21" t="inlineStr">
         <is>
-          <t>Eva</t>
-        </is>
-      </c>
-      <c r="AA21" t="inlineStr"/>
+          <t>Brianna</t>
+        </is>
+      </c>
+      <c r="AA21" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr"/>
@@ -1664,19 +1652,15 @@
       <c r="H22" t="inlineStr"/>
       <c r="I22" t="inlineStr">
         <is>
-          <t>8)</t>
+          <t>7)</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>Sarah</t>
-        </is>
-      </c>
-      <c r="K22" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
+          <t>Qiana</t>
+        </is>
+      </c>
+      <c r="K22" t="inlineStr"/>
       <c r="L22" t="inlineStr"/>
       <c r="M22" t="inlineStr">
         <is>
@@ -1724,12 +1708,12 @@
       <c r="X22" t="inlineStr"/>
       <c r="Y22" t="inlineStr">
         <is>
-          <t>7)</t>
+          <t>6)</t>
         </is>
       </c>
       <c r="Z22" t="inlineStr">
         <is>
-          <t>Joseph</t>
+          <t>Eva</t>
         </is>
       </c>
       <c r="AA22" t="inlineStr"/>
@@ -1745,15 +1729,19 @@
       <c r="H23" t="inlineStr"/>
       <c r="I23" t="inlineStr">
         <is>
-          <t>9)</t>
+          <t>8)</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>Tina E</t>
-        </is>
-      </c>
-      <c r="K23" t="inlineStr"/>
+          <t>Sarah</t>
+        </is>
+      </c>
+      <c r="K23" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="L23" t="inlineStr"/>
       <c r="M23" t="inlineStr"/>
       <c r="N23" t="inlineStr"/>
@@ -1794,12 +1782,12 @@
       <c r="X23" t="inlineStr"/>
       <c r="Y23" t="inlineStr">
         <is>
-          <t>8)</t>
+          <t>7)</t>
         </is>
       </c>
       <c r="Z23" t="inlineStr">
         <is>
-          <t>Josh S</t>
+          <t>Joseph</t>
         </is>
       </c>
       <c r="AA23" t="inlineStr"/>
@@ -1813,8 +1801,16 @@
       <c r="F24" t="inlineStr"/>
       <c r="G24" t="inlineStr"/>
       <c r="H24" t="inlineStr"/>
-      <c r="I24" t="inlineStr"/>
-      <c r="J24" t="inlineStr"/>
+      <c r="I24" t="inlineStr">
+        <is>
+          <t>9)</t>
+        </is>
+      </c>
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>Tina E</t>
+        </is>
+      </c>
       <c r="K24" t="inlineStr"/>
       <c r="L24" t="inlineStr"/>
       <c r="M24" t="inlineStr"/>
@@ -1856,20 +1852,15 @@
       <c r="X24" t="inlineStr"/>
       <c r="Y24" t="inlineStr">
         <is>
-          <t>9)</t>
+          <t>8)</t>
         </is>
       </c>
       <c r="Z24" t="inlineStr">
         <is>
-          <t>Justin Lee</t>
-        </is>
-      </c>
-      <c r="AA24" t="inlineStr">
-        <is>
-          <t>w/ Nate early,
-Driver 1/2</t>
-        </is>
-      </c>
+          <t>Josh S</t>
+        </is>
+      </c>
+      <c r="AA24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr"/>
@@ -1930,17 +1921,18 @@
       <c r="X25" t="inlineStr"/>
       <c r="Y25" t="inlineStr">
         <is>
-          <t>10)</t>
+          <t>9)</t>
         </is>
       </c>
       <c r="Z25" t="inlineStr">
         <is>
-          <t>Sarah</t>
+          <t>Justin Lee</t>
         </is>
       </c>
       <c r="AA25" t="inlineStr">
         <is>
-          <t>@ Store</t>
+          <t>w/ Nate early,
+Driver 1/2</t>
         </is>
       </c>
     </row>
@@ -1958,11 +1950,7 @@
       <c r="G26" t="inlineStr"/>
       <c r="H26" t="inlineStr"/>
       <c r="I26" t="inlineStr"/>
-      <c r="J26" t="inlineStr">
-        <is>
-          <t>Office / Car maintenance</t>
-        </is>
-      </c>
+      <c r="J26" t="inlineStr"/>
       <c r="K26" t="inlineStr"/>
       <c r="L26" t="inlineStr"/>
       <c r="M26" t="inlineStr"/>
@@ -2006,9 +1994,21 @@
         </is>
       </c>
       <c r="X26" t="inlineStr"/>
-      <c r="Y26" t="inlineStr"/>
-      <c r="Z26" t="inlineStr"/>
-      <c r="AA26" t="inlineStr"/>
+      <c r="Y26" t="inlineStr">
+        <is>
+          <t>10)</t>
+        </is>
+      </c>
+      <c r="Z26" t="inlineStr">
+        <is>
+          <t>Sarah</t>
+        </is>
+      </c>
+      <c r="AA26" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr"/>
@@ -2026,14 +2026,10 @@
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr">
         <is>
-          <t>Brianna</t>
-        </is>
-      </c>
-      <c r="K27" t="inlineStr">
-        <is>
-          <t>Silver Van - tail light</t>
-        </is>
-      </c>
+          <t>Office / Car maintenance</t>
+        </is>
+      </c>
+      <c r="K27" t="inlineStr"/>
       <c r="L27" t="inlineStr"/>
       <c r="M27" t="inlineStr"/>
       <c r="N27" t="inlineStr">
@@ -2093,8 +2089,16 @@
       <c r="G28" t="inlineStr"/>
       <c r="H28" t="inlineStr"/>
       <c r="I28" t="inlineStr"/>
-      <c r="J28" t="inlineStr"/>
-      <c r="K28" t="inlineStr"/>
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>Brianna</t>
+        </is>
+      </c>
+      <c r="K28" t="inlineStr">
+        <is>
+          <t>Silver Van - tail light</t>
+        </is>
+      </c>
       <c r="L28" t="inlineStr"/>
       <c r="M28" t="inlineStr"/>
       <c r="N28" t="inlineStr">

--- a/08-17-25 to 08-23-25 Madison Schedule.xlsx
+++ b/08-17-25 to 08-23-25 Madison Schedule.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AA60"/>
+  <dimension ref="A1:AA70"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1012,11 +1012,7 @@
       <c r="S14" t="inlineStr"/>
       <c r="T14" t="inlineStr"/>
       <c r="U14" t="inlineStr"/>
-      <c r="V14" t="inlineStr">
-        <is>
-          <t>*4:10 am IL office leave time</t>
-        </is>
-      </c>
+      <c r="V14" t="inlineStr"/>
       <c r="W14" t="inlineStr"/>
       <c r="X14" t="inlineStr"/>
       <c r="Y14" t="inlineStr"/>
@@ -1079,11 +1075,7 @@
       </c>
       <c r="T15" t="inlineStr"/>
       <c r="U15" t="inlineStr"/>
-      <c r="V15" t="inlineStr">
-        <is>
-          <t>4:40 am meet for Brianna and Nate at Beloit Walmart</t>
-        </is>
-      </c>
+      <c r="V15" t="inlineStr"/>
       <c r="W15" t="inlineStr"/>
       <c r="X15" t="inlineStr"/>
       <c r="Y15" t="inlineStr"/>
@@ -1330,7 +1322,7 @@
       </c>
       <c r="W18" t="inlineStr">
         <is>
-          <t>Driver</t>
+          <t>@ Store</t>
         </is>
       </c>
       <c r="X18" t="inlineStr"/>
@@ -1415,12 +1407,12 @@
       </c>
       <c r="V19" t="inlineStr">
         <is>
-          <t>Nate</t>
+          <t>Caitlin</t>
         </is>
       </c>
       <c r="W19" t="inlineStr">
         <is>
-          <t>Optima to Beloit</t>
+          <t>@ Store</t>
         </is>
       </c>
       <c r="X19" t="inlineStr"/>
@@ -1500,12 +1492,13 @@
       </c>
       <c r="V20" t="inlineStr">
         <is>
-          <t>Caitlin</t>
+          <t>Carlie</t>
         </is>
       </c>
       <c r="W20" t="inlineStr">
         <is>
-          <t>@ Store</t>
+          <t>@ Store,
+Rx</t>
         </is>
       </c>
       <c r="X20" t="inlineStr"/>
@@ -1602,13 +1595,12 @@
       </c>
       <c r="V21" t="inlineStr">
         <is>
-          <t>Carlie</t>
+          <t>Cynthia</t>
         </is>
       </c>
       <c r="W21" t="inlineStr">
         <is>
-          <t>@ Store,
-Rx</t>
+          <t>@ Store</t>
         </is>
       </c>
       <c r="X21" t="inlineStr"/>
@@ -1697,7 +1689,7 @@
       </c>
       <c r="V22" t="inlineStr">
         <is>
-          <t>Cynthia</t>
+          <t>Ian</t>
         </is>
       </c>
       <c r="W22" t="inlineStr">
@@ -1771,12 +1763,13 @@
       </c>
       <c r="V23" t="inlineStr">
         <is>
-          <t>Ian</t>
+          <t>Jerry D</t>
         </is>
       </c>
       <c r="W23" t="inlineStr">
         <is>
-          <t>@ Store</t>
+          <t>@ Store,
+Supv Rx</t>
         </is>
       </c>
       <c r="X23" t="inlineStr"/>
@@ -1840,13 +1833,12 @@
       </c>
       <c r="V24" t="inlineStr">
         <is>
-          <t>Jerry D</t>
+          <t>Katherine</t>
         </is>
       </c>
       <c r="W24" t="inlineStr">
         <is>
-          <t>@ Store,
-Supv Rx</t>
+          <t>@ Store</t>
         </is>
       </c>
       <c r="X24" t="inlineStr"/>
@@ -1910,7 +1902,7 @@
       </c>
       <c r="V25" t="inlineStr">
         <is>
-          <t>Katherine</t>
+          <t>Lexi</t>
         </is>
       </c>
       <c r="W25" t="inlineStr">
@@ -1985,7 +1977,7 @@
       </c>
       <c r="V26" t="inlineStr">
         <is>
-          <t>Lexi</t>
+          <t>Monica</t>
         </is>
       </c>
       <c r="W26" t="inlineStr">
@@ -2062,7 +2054,7 @@
       </c>
       <c r="V27" t="inlineStr">
         <is>
-          <t>Monica</t>
+          <t>Pamela</t>
         </is>
       </c>
       <c r="W27" t="inlineStr">
@@ -2131,7 +2123,7 @@
       </c>
       <c r="V28" t="inlineStr">
         <is>
-          <t>Pamela</t>
+          <t>Paul</t>
         </is>
       </c>
       <c r="W28" t="inlineStr">
@@ -2192,7 +2184,7 @@
       </c>
       <c r="V29" t="inlineStr">
         <is>
-          <t>Paul</t>
+          <t>Sonia</t>
         </is>
       </c>
       <c r="W29" t="inlineStr">
@@ -2246,21 +2238,9 @@
         </is>
       </c>
       <c r="T30" t="inlineStr"/>
-      <c r="U30" t="inlineStr">
-        <is>
-          <t>14)</t>
-        </is>
-      </c>
-      <c r="V30" t="inlineStr">
-        <is>
-          <t>Sonia</t>
-        </is>
-      </c>
-      <c r="W30" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
+      <c r="U30" t="inlineStr"/>
+      <c r="V30" t="inlineStr"/>
+      <c r="W30" t="inlineStr"/>
       <c r="X30" t="inlineStr"/>
       <c r="Y30" t="inlineStr"/>
       <c r="Z30" t="inlineStr"/>
@@ -2337,7 +2317,11 @@
       <c r="S32" t="inlineStr"/>
       <c r="T32" t="inlineStr"/>
       <c r="U32" t="inlineStr"/>
-      <c r="V32" t="inlineStr"/>
+      <c r="V32" t="inlineStr">
+        <is>
+          <t>6:30 AM START</t>
+        </is>
+      </c>
       <c r="W32" t="inlineStr"/>
       <c r="X32" t="inlineStr"/>
       <c r="Y32" t="inlineStr"/>
@@ -2393,7 +2377,7 @@
       <c r="U33" t="inlineStr"/>
       <c r="V33" t="inlineStr">
         <is>
-          <t>6:30 AM START</t>
+          <t>MODAS-SCAN</t>
         </is>
       </c>
       <c r="W33" t="inlineStr"/>
@@ -2446,7 +2430,7 @@
       <c r="U34" t="inlineStr"/>
       <c r="V34" t="inlineStr">
         <is>
-          <t>MODAS-SCAN</t>
+          <t>KELLEY #79, GAMMON MOBIL, MADISON</t>
         </is>
       </c>
       <c r="W34" t="inlineStr"/>
@@ -2504,7 +2488,7 @@
       <c r="U35" t="inlineStr"/>
       <c r="V35" t="inlineStr">
         <is>
-          <t>KELLEY #79, GAMMON MOBIL, MADISON</t>
+          <t>901 S GAMMON RD</t>
         </is>
       </c>
       <c r="W35" t="inlineStr"/>
@@ -2562,7 +2546,7 @@
       <c r="U36" t="inlineStr"/>
       <c r="V36" t="inlineStr">
         <is>
-          <t>901 S GAMMON RD</t>
+          <t>https://goo.gl/maps/XZCVbczZyjz</t>
         </is>
       </c>
       <c r="W36" t="inlineStr"/>
@@ -2619,7 +2603,7 @@
       <c r="U37" t="inlineStr"/>
       <c r="V37" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/XZCVbczZyjz</t>
+          <t xml:space="preserve">Please be careful to scan only product barcodes, and not the shelf scan tags  </t>
         </is>
       </c>
       <c r="W37" t="inlineStr"/>
@@ -2668,7 +2652,7 @@
       <c r="U38" t="inlineStr"/>
       <c r="V38" t="inlineStr">
         <is>
-          <t xml:space="preserve">Please be careful to scan only product barcodes, and not the shelf scan tags  </t>
+          <t xml:space="preserve">*IL Meet is 5:00 am at IL office </t>
         </is>
       </c>
       <c r="W38" t="inlineStr"/>
@@ -2703,11 +2687,7 @@
       <c r="S39" t="inlineStr"/>
       <c r="T39" t="inlineStr"/>
       <c r="U39" t="inlineStr"/>
-      <c r="V39" t="inlineStr">
-        <is>
-          <t xml:space="preserve">*IL Meet is 5:00 am at IL office </t>
-        </is>
-      </c>
+      <c r="V39" t="inlineStr"/>
       <c r="W39" t="inlineStr"/>
       <c r="X39" t="inlineStr"/>
       <c r="Y39" t="inlineStr"/>
@@ -2735,9 +2715,22 @@
       <c r="R40" t="inlineStr"/>
       <c r="S40" t="inlineStr"/>
       <c r="T40" t="inlineStr"/>
-      <c r="U40" t="inlineStr"/>
-      <c r="V40" t="inlineStr"/>
-      <c r="W40" t="inlineStr"/>
+      <c r="U40" t="inlineStr">
+        <is>
+          <t>1)</t>
+        </is>
+      </c>
+      <c r="V40" t="inlineStr">
+        <is>
+          <t>Qiana</t>
+        </is>
+      </c>
+      <c r="W40" t="inlineStr">
+        <is>
+          <t>@ Store,
+Camry 3, Equip</t>
+        </is>
+      </c>
       <c r="X40" t="inlineStr"/>
       <c r="Y40" t="inlineStr"/>
       <c r="Z40" t="inlineStr"/>
@@ -2782,20 +2775,15 @@
       <c r="T41" t="inlineStr"/>
       <c r="U41" t="inlineStr">
         <is>
-          <t>1)</t>
+          <t>2)</t>
         </is>
       </c>
       <c r="V41" t="inlineStr">
         <is>
-          <t>Qiana</t>
-        </is>
-      </c>
-      <c r="W41" t="inlineStr">
-        <is>
-          <t>@ Store,
-Camry 3, Equip</t>
-        </is>
-      </c>
+          <t>Angela</t>
+        </is>
+      </c>
+      <c r="W41" t="inlineStr"/>
       <c r="X41" t="inlineStr"/>
       <c r="Y41" t="inlineStr"/>
       <c r="Z41" t="inlineStr"/>
@@ -2840,12 +2828,12 @@
       <c r="T42" t="inlineStr"/>
       <c r="U42" t="inlineStr">
         <is>
-          <t>2)</t>
+          <t>3)</t>
         </is>
       </c>
       <c r="V42" t="inlineStr">
         <is>
-          <t>Angela</t>
+          <t>Anisha</t>
         </is>
       </c>
       <c r="W42" t="inlineStr"/>
@@ -2881,15 +2869,20 @@
       <c r="T43" t="inlineStr"/>
       <c r="U43" t="inlineStr">
         <is>
-          <t>3)</t>
+          <t>4)</t>
         </is>
       </c>
       <c r="V43" t="inlineStr">
         <is>
-          <t>Anisha</t>
-        </is>
-      </c>
-      <c r="W43" t="inlineStr"/>
+          <t>Ashley P</t>
+        </is>
+      </c>
+      <c r="W43" t="inlineStr">
+        <is>
+          <t>Driver,
+Silver Van</t>
+        </is>
+      </c>
       <c r="X43" t="inlineStr"/>
       <c r="Y43" t="inlineStr"/>
       <c r="Z43" t="inlineStr"/>
@@ -2922,20 +2915,15 @@
       <c r="T44" t="inlineStr"/>
       <c r="U44" t="inlineStr">
         <is>
-          <t>4)</t>
+          <t>5)</t>
         </is>
       </c>
       <c r="V44" t="inlineStr">
         <is>
-          <t>Ashley P</t>
-        </is>
-      </c>
-      <c r="W44" t="inlineStr">
-        <is>
-          <t>Driver,
-Red Camry</t>
-        </is>
-      </c>
+          <t>Kayla</t>
+        </is>
+      </c>
+      <c r="W44" t="inlineStr"/>
       <c r="X44" t="inlineStr"/>
       <c r="Y44" t="inlineStr"/>
       <c r="Z44" t="inlineStr"/>
@@ -2972,12 +2960,12 @@
       <c r="T45" t="inlineStr"/>
       <c r="U45" t="inlineStr">
         <is>
-          <t>5)</t>
+          <t>6)</t>
         </is>
       </c>
       <c r="V45" t="inlineStr">
         <is>
-          <t>Kayla</t>
+          <t>Nate</t>
         </is>
       </c>
       <c r="W45" t="inlineStr"/>
@@ -3015,21 +3003,9 @@
       </c>
       <c r="S46" t="inlineStr"/>
       <c r="T46" t="inlineStr"/>
-      <c r="U46" t="inlineStr">
-        <is>
-          <t>6)</t>
-        </is>
-      </c>
-      <c r="V46" t="inlineStr">
-        <is>
-          <t>Sarah</t>
-        </is>
-      </c>
-      <c r="W46" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
+      <c r="U46" t="inlineStr"/>
+      <c r="V46" t="inlineStr"/>
+      <c r="W46" t="inlineStr"/>
       <c r="X46" t="inlineStr"/>
       <c r="Y46" t="inlineStr"/>
       <c r="Z46" t="inlineStr"/>
@@ -3098,7 +3074,11 @@
       <c r="S48" t="inlineStr"/>
       <c r="T48" t="inlineStr"/>
       <c r="U48" t="inlineStr"/>
-      <c r="V48" t="inlineStr"/>
+      <c r="V48" t="inlineStr">
+        <is>
+          <t>7:00 AM START</t>
+        </is>
+      </c>
       <c r="W48" t="inlineStr"/>
       <c r="X48" t="inlineStr"/>
       <c r="Y48" t="inlineStr"/>
@@ -3145,7 +3125,7 @@
       <c r="U49" t="inlineStr"/>
       <c r="V49" t="inlineStr">
         <is>
-          <t>6:30 AM START</t>
+          <t>DC5-FINANCIAL</t>
         </is>
       </c>
       <c r="W49" t="inlineStr"/>
@@ -3190,7 +3170,7 @@
       <c r="U50" t="inlineStr"/>
       <c r="V50" t="inlineStr">
         <is>
-          <t>MODAS-SCAN</t>
+          <t>SALE INVENTORY</t>
         </is>
       </c>
       <c r="W50" t="inlineStr"/>
@@ -3231,7 +3211,7 @@
       <c r="U51" t="inlineStr"/>
       <c r="V51" t="inlineStr">
         <is>
-          <t>KELLEY #37, ROCKTON MOBIL</t>
+          <t>CONTACT IS SUNNY (HE IS THE SELLER)</t>
         </is>
       </c>
       <c r="W51" t="inlineStr"/>
@@ -3289,7 +3269,7 @@
       <c r="U52" t="inlineStr"/>
       <c r="V52" t="inlineStr">
         <is>
-          <t>111 N BLACKHAWK BLVD</t>
+          <t>ZZIP STOP, WONEWOC</t>
         </is>
       </c>
       <c r="W52" t="inlineStr"/>
@@ -3338,7 +3318,7 @@
       <c r="U53" t="inlineStr"/>
       <c r="V53" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/8XLAYoWmhuu</t>
+          <t>300 CENTER ST</t>
         </is>
       </c>
       <c r="W53" t="inlineStr"/>
@@ -3391,7 +3371,7 @@
       <c r="U54" t="inlineStr"/>
       <c r="V54" t="inlineStr">
         <is>
-          <t xml:space="preserve">Please be careful to scan only product barcodes, and not the shelf scan tags   </t>
+          <t>https://maps.app.goo.gl/qbVnN7tVAnoCsvfL9</t>
         </is>
       </c>
       <c r="W54" t="inlineStr"/>
@@ -3473,12 +3453,12 @@
       </c>
       <c r="V56" t="inlineStr">
         <is>
-          <t>Mike G</t>
+          <t>Sarah</t>
         </is>
       </c>
       <c r="W56" t="inlineStr">
         <is>
-          <t>Equip</t>
+          <t>@ Store, Equip</t>
         </is>
       </c>
       <c r="X56" t="inlineStr"/>
@@ -3515,16 +3495,8 @@
       </c>
       <c r="S57" t="inlineStr"/>
       <c r="T57" t="inlineStr"/>
-      <c r="U57" t="inlineStr">
-        <is>
-          <t>2)</t>
-        </is>
-      </c>
-      <c r="V57" t="inlineStr">
-        <is>
-          <t>Emily L</t>
-        </is>
-      </c>
+      <c r="U57" t="inlineStr"/>
+      <c r="V57" t="inlineStr"/>
       <c r="W57" t="inlineStr"/>
       <c r="X57" t="inlineStr"/>
       <c r="Y57" t="inlineStr"/>
@@ -3560,16 +3532,8 @@
       </c>
       <c r="S58" t="inlineStr"/>
       <c r="T58" t="inlineStr"/>
-      <c r="U58" t="inlineStr">
-        <is>
-          <t>3)</t>
-        </is>
-      </c>
-      <c r="V58" t="inlineStr">
-        <is>
-          <t>Joseph</t>
-        </is>
-      </c>
+      <c r="U58" t="inlineStr"/>
+      <c r="V58" t="inlineStr"/>
       <c r="W58" t="inlineStr"/>
       <c r="X58" t="inlineStr"/>
       <c r="Y58" t="inlineStr"/>
@@ -3597,14 +3561,10 @@
       <c r="R59" t="inlineStr"/>
       <c r="S59" t="inlineStr"/>
       <c r="T59" t="inlineStr"/>
-      <c r="U59" t="inlineStr">
-        <is>
-          <t>4)</t>
-        </is>
-      </c>
+      <c r="U59" t="inlineStr"/>
       <c r="V59" t="inlineStr">
         <is>
-          <t>Justin Lee</t>
+          <t>6:30 AM START</t>
         </is>
       </c>
       <c r="W59" t="inlineStr"/>
@@ -3634,14 +3594,10 @@
       <c r="R60" t="inlineStr"/>
       <c r="S60" t="inlineStr"/>
       <c r="T60" t="inlineStr"/>
-      <c r="U60" t="inlineStr">
-        <is>
-          <t>5)</t>
-        </is>
-      </c>
+      <c r="U60" t="inlineStr"/>
       <c r="V60" t="inlineStr">
         <is>
-          <t>Tina E</t>
+          <t>MODAS-SCAN</t>
         </is>
       </c>
       <c r="W60" t="inlineStr"/>
@@ -3650,6 +3606,356 @@
       <c r="Z60" t="inlineStr"/>
       <c r="AA60" t="inlineStr"/>
     </row>
+    <row r="61">
+      <c r="A61" t="inlineStr"/>
+      <c r="B61" t="inlineStr"/>
+      <c r="C61" t="inlineStr"/>
+      <c r="D61" t="inlineStr"/>
+      <c r="E61" t="inlineStr"/>
+      <c r="F61" t="inlineStr"/>
+      <c r="G61" t="inlineStr"/>
+      <c r="H61" t="inlineStr"/>
+      <c r="I61" t="inlineStr"/>
+      <c r="J61" t="inlineStr"/>
+      <c r="K61" t="inlineStr"/>
+      <c r="L61" t="inlineStr"/>
+      <c r="M61" t="inlineStr"/>
+      <c r="N61" t="inlineStr"/>
+      <c r="O61" t="inlineStr"/>
+      <c r="P61" t="inlineStr"/>
+      <c r="Q61" t="inlineStr"/>
+      <c r="R61" t="inlineStr"/>
+      <c r="S61" t="inlineStr"/>
+      <c r="T61" t="inlineStr"/>
+      <c r="U61" t="inlineStr"/>
+      <c r="V61" t="inlineStr">
+        <is>
+          <t>KELLEY #37, ROCKTON MOBIL</t>
+        </is>
+      </c>
+      <c r="W61" t="inlineStr"/>
+      <c r="X61" t="inlineStr"/>
+      <c r="Y61" t="inlineStr"/>
+      <c r="Z61" t="inlineStr"/>
+      <c r="AA61" t="inlineStr"/>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr"/>
+      <c r="B62" t="inlineStr"/>
+      <c r="C62" t="inlineStr"/>
+      <c r="D62" t="inlineStr"/>
+      <c r="E62" t="inlineStr"/>
+      <c r="F62" t="inlineStr"/>
+      <c r="G62" t="inlineStr"/>
+      <c r="H62" t="inlineStr"/>
+      <c r="I62" t="inlineStr"/>
+      <c r="J62" t="inlineStr"/>
+      <c r="K62" t="inlineStr"/>
+      <c r="L62" t="inlineStr"/>
+      <c r="M62" t="inlineStr"/>
+      <c r="N62" t="inlineStr"/>
+      <c r="O62" t="inlineStr"/>
+      <c r="P62" t="inlineStr"/>
+      <c r="Q62" t="inlineStr"/>
+      <c r="R62" t="inlineStr"/>
+      <c r="S62" t="inlineStr"/>
+      <c r="T62" t="inlineStr"/>
+      <c r="U62" t="inlineStr"/>
+      <c r="V62" t="inlineStr">
+        <is>
+          <t>111 N BLACKHAWK BLVD</t>
+        </is>
+      </c>
+      <c r="W62" t="inlineStr"/>
+      <c r="X62" t="inlineStr"/>
+      <c r="Y62" t="inlineStr"/>
+      <c r="Z62" t="inlineStr"/>
+      <c r="AA62" t="inlineStr"/>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr"/>
+      <c r="B63" t="inlineStr"/>
+      <c r="C63" t="inlineStr"/>
+      <c r="D63" t="inlineStr"/>
+      <c r="E63" t="inlineStr"/>
+      <c r="F63" t="inlineStr"/>
+      <c r="G63" t="inlineStr"/>
+      <c r="H63" t="inlineStr"/>
+      <c r="I63" t="inlineStr"/>
+      <c r="J63" t="inlineStr"/>
+      <c r="K63" t="inlineStr"/>
+      <c r="L63" t="inlineStr"/>
+      <c r="M63" t="inlineStr"/>
+      <c r="N63" t="inlineStr"/>
+      <c r="O63" t="inlineStr"/>
+      <c r="P63" t="inlineStr"/>
+      <c r="Q63" t="inlineStr"/>
+      <c r="R63" t="inlineStr"/>
+      <c r="S63" t="inlineStr"/>
+      <c r="T63" t="inlineStr"/>
+      <c r="U63" t="inlineStr"/>
+      <c r="V63" t="inlineStr">
+        <is>
+          <t>https://goo.gl/maps/8XLAYoWmhuu</t>
+        </is>
+      </c>
+      <c r="W63" t="inlineStr"/>
+      <c r="X63" t="inlineStr"/>
+      <c r="Y63" t="inlineStr"/>
+      <c r="Z63" t="inlineStr"/>
+      <c r="AA63" t="inlineStr"/>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr"/>
+      <c r="B64" t="inlineStr"/>
+      <c r="C64" t="inlineStr"/>
+      <c r="D64" t="inlineStr"/>
+      <c r="E64" t="inlineStr"/>
+      <c r="F64" t="inlineStr"/>
+      <c r="G64" t="inlineStr"/>
+      <c r="H64" t="inlineStr"/>
+      <c r="I64" t="inlineStr"/>
+      <c r="J64" t="inlineStr"/>
+      <c r="K64" t="inlineStr"/>
+      <c r="L64" t="inlineStr"/>
+      <c r="M64" t="inlineStr"/>
+      <c r="N64" t="inlineStr"/>
+      <c r="O64" t="inlineStr"/>
+      <c r="P64" t="inlineStr"/>
+      <c r="Q64" t="inlineStr"/>
+      <c r="R64" t="inlineStr"/>
+      <c r="S64" t="inlineStr"/>
+      <c r="T64" t="inlineStr"/>
+      <c r="U64" t="inlineStr"/>
+      <c r="V64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Please be careful to scan only product barcodes, and not the shelf scan tags   </t>
+        </is>
+      </c>
+      <c r="W64" t="inlineStr"/>
+      <c r="X64" t="inlineStr"/>
+      <c r="Y64" t="inlineStr"/>
+      <c r="Z64" t="inlineStr"/>
+      <c r="AA64" t="inlineStr"/>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr"/>
+      <c r="B65" t="inlineStr"/>
+      <c r="C65" t="inlineStr"/>
+      <c r="D65" t="inlineStr"/>
+      <c r="E65" t="inlineStr"/>
+      <c r="F65" t="inlineStr"/>
+      <c r="G65" t="inlineStr"/>
+      <c r="H65" t="inlineStr"/>
+      <c r="I65" t="inlineStr"/>
+      <c r="J65" t="inlineStr"/>
+      <c r="K65" t="inlineStr"/>
+      <c r="L65" t="inlineStr"/>
+      <c r="M65" t="inlineStr"/>
+      <c r="N65" t="inlineStr"/>
+      <c r="O65" t="inlineStr"/>
+      <c r="P65" t="inlineStr"/>
+      <c r="Q65" t="inlineStr"/>
+      <c r="R65" t="inlineStr"/>
+      <c r="S65" t="inlineStr"/>
+      <c r="T65" t="inlineStr"/>
+      <c r="U65" t="inlineStr"/>
+      <c r="V65" t="inlineStr"/>
+      <c r="W65" t="inlineStr"/>
+      <c r="X65" t="inlineStr"/>
+      <c r="Y65" t="inlineStr"/>
+      <c r="Z65" t="inlineStr"/>
+      <c r="AA65" t="inlineStr"/>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr"/>
+      <c r="B66" t="inlineStr"/>
+      <c r="C66" t="inlineStr"/>
+      <c r="D66" t="inlineStr"/>
+      <c r="E66" t="inlineStr"/>
+      <c r="F66" t="inlineStr"/>
+      <c r="G66" t="inlineStr"/>
+      <c r="H66" t="inlineStr"/>
+      <c r="I66" t="inlineStr"/>
+      <c r="J66" t="inlineStr"/>
+      <c r="K66" t="inlineStr"/>
+      <c r="L66" t="inlineStr"/>
+      <c r="M66" t="inlineStr"/>
+      <c r="N66" t="inlineStr"/>
+      <c r="O66" t="inlineStr"/>
+      <c r="P66" t="inlineStr"/>
+      <c r="Q66" t="inlineStr"/>
+      <c r="R66" t="inlineStr"/>
+      <c r="S66" t="inlineStr"/>
+      <c r="T66" t="inlineStr"/>
+      <c r="U66" t="inlineStr">
+        <is>
+          <t>1)</t>
+        </is>
+      </c>
+      <c r="V66" t="inlineStr">
+        <is>
+          <t>Mike G</t>
+        </is>
+      </c>
+      <c r="W66" t="inlineStr">
+        <is>
+          <t>Equip</t>
+        </is>
+      </c>
+      <c r="X66" t="inlineStr"/>
+      <c r="Y66" t="inlineStr"/>
+      <c r="Z66" t="inlineStr"/>
+      <c r="AA66" t="inlineStr"/>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr"/>
+      <c r="B67" t="inlineStr"/>
+      <c r="C67" t="inlineStr"/>
+      <c r="D67" t="inlineStr"/>
+      <c r="E67" t="inlineStr"/>
+      <c r="F67" t="inlineStr"/>
+      <c r="G67" t="inlineStr"/>
+      <c r="H67" t="inlineStr"/>
+      <c r="I67" t="inlineStr"/>
+      <c r="J67" t="inlineStr"/>
+      <c r="K67" t="inlineStr"/>
+      <c r="L67" t="inlineStr"/>
+      <c r="M67" t="inlineStr"/>
+      <c r="N67" t="inlineStr"/>
+      <c r="O67" t="inlineStr"/>
+      <c r="P67" t="inlineStr"/>
+      <c r="Q67" t="inlineStr"/>
+      <c r="R67" t="inlineStr"/>
+      <c r="S67" t="inlineStr"/>
+      <c r="T67" t="inlineStr"/>
+      <c r="U67" t="inlineStr">
+        <is>
+          <t>2)</t>
+        </is>
+      </c>
+      <c r="V67" t="inlineStr">
+        <is>
+          <t>Emily L</t>
+        </is>
+      </c>
+      <c r="W67" t="inlineStr"/>
+      <c r="X67" t="inlineStr"/>
+      <c r="Y67" t="inlineStr"/>
+      <c r="Z67" t="inlineStr"/>
+      <c r="AA67" t="inlineStr"/>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr"/>
+      <c r="B68" t="inlineStr"/>
+      <c r="C68" t="inlineStr"/>
+      <c r="D68" t="inlineStr"/>
+      <c r="E68" t="inlineStr"/>
+      <c r="F68" t="inlineStr"/>
+      <c r="G68" t="inlineStr"/>
+      <c r="H68" t="inlineStr"/>
+      <c r="I68" t="inlineStr"/>
+      <c r="J68" t="inlineStr"/>
+      <c r="K68" t="inlineStr"/>
+      <c r="L68" t="inlineStr"/>
+      <c r="M68" t="inlineStr"/>
+      <c r="N68" t="inlineStr"/>
+      <c r="O68" t="inlineStr"/>
+      <c r="P68" t="inlineStr"/>
+      <c r="Q68" t="inlineStr"/>
+      <c r="R68" t="inlineStr"/>
+      <c r="S68" t="inlineStr"/>
+      <c r="T68" t="inlineStr"/>
+      <c r="U68" t="inlineStr">
+        <is>
+          <t>3)</t>
+        </is>
+      </c>
+      <c r="V68" t="inlineStr">
+        <is>
+          <t>Joseph</t>
+        </is>
+      </c>
+      <c r="W68" t="inlineStr"/>
+      <c r="X68" t="inlineStr"/>
+      <c r="Y68" t="inlineStr"/>
+      <c r="Z68" t="inlineStr"/>
+      <c r="AA68" t="inlineStr"/>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr"/>
+      <c r="B69" t="inlineStr"/>
+      <c r="C69" t="inlineStr"/>
+      <c r="D69" t="inlineStr"/>
+      <c r="E69" t="inlineStr"/>
+      <c r="F69" t="inlineStr"/>
+      <c r="G69" t="inlineStr"/>
+      <c r="H69" t="inlineStr"/>
+      <c r="I69" t="inlineStr"/>
+      <c r="J69" t="inlineStr"/>
+      <c r="K69" t="inlineStr"/>
+      <c r="L69" t="inlineStr"/>
+      <c r="M69" t="inlineStr"/>
+      <c r="N69" t="inlineStr"/>
+      <c r="O69" t="inlineStr"/>
+      <c r="P69" t="inlineStr"/>
+      <c r="Q69" t="inlineStr"/>
+      <c r="R69" t="inlineStr"/>
+      <c r="S69" t="inlineStr"/>
+      <c r="T69" t="inlineStr"/>
+      <c r="U69" t="inlineStr">
+        <is>
+          <t>4)</t>
+        </is>
+      </c>
+      <c r="V69" t="inlineStr">
+        <is>
+          <t>Justin Lee</t>
+        </is>
+      </c>
+      <c r="W69" t="inlineStr"/>
+      <c r="X69" t="inlineStr"/>
+      <c r="Y69" t="inlineStr"/>
+      <c r="Z69" t="inlineStr"/>
+      <c r="AA69" t="inlineStr"/>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr"/>
+      <c r="B70" t="inlineStr"/>
+      <c r="C70" t="inlineStr"/>
+      <c r="D70" t="inlineStr"/>
+      <c r="E70" t="inlineStr"/>
+      <c r="F70" t="inlineStr"/>
+      <c r="G70" t="inlineStr"/>
+      <c r="H70" t="inlineStr"/>
+      <c r="I70" t="inlineStr"/>
+      <c r="J70" t="inlineStr"/>
+      <c r="K70" t="inlineStr"/>
+      <c r="L70" t="inlineStr"/>
+      <c r="M70" t="inlineStr"/>
+      <c r="N70" t="inlineStr"/>
+      <c r="O70" t="inlineStr"/>
+      <c r="P70" t="inlineStr"/>
+      <c r="Q70" t="inlineStr"/>
+      <c r="R70" t="inlineStr"/>
+      <c r="S70" t="inlineStr"/>
+      <c r="T70" t="inlineStr"/>
+      <c r="U70" t="inlineStr">
+        <is>
+          <t>5)</t>
+        </is>
+      </c>
+      <c r="V70" t="inlineStr">
+        <is>
+          <t>Tina E</t>
+        </is>
+      </c>
+      <c r="W70" t="inlineStr"/>
+      <c r="X70" t="inlineStr"/>
+      <c r="Y70" t="inlineStr"/>
+      <c r="Z70" t="inlineStr"/>
+      <c r="AA70" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/08-17-25 to 08-23-25 Madison Schedule.xlsx
+++ b/08-17-25 to 08-23-25 Madison Schedule.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AA70"/>
+  <dimension ref="A1:AA68"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1074,9 +1074,21 @@
         </is>
       </c>
       <c r="T15" t="inlineStr"/>
-      <c r="U15" t="inlineStr"/>
-      <c r="V15" t="inlineStr"/>
-      <c r="W15" t="inlineStr"/>
+      <c r="U15" t="inlineStr">
+        <is>
+          <t>1)</t>
+        </is>
+      </c>
+      <c r="V15" t="inlineStr">
+        <is>
+          <t>DJ</t>
+        </is>
+      </c>
+      <c r="W15" t="inlineStr">
+        <is>
+          <t>@ Store, Equip</t>
+        </is>
+      </c>
       <c r="X15" t="inlineStr"/>
       <c r="Y15" t="inlineStr"/>
       <c r="Z15" t="inlineStr">
@@ -1140,9 +1152,21 @@
         </is>
       </c>
       <c r="T16" t="inlineStr"/>
-      <c r="U16" t="inlineStr"/>
-      <c r="V16" t="inlineStr"/>
-      <c r="W16" t="inlineStr"/>
+      <c r="U16" t="inlineStr">
+        <is>
+          <t>2)</t>
+        </is>
+      </c>
+      <c r="V16" t="inlineStr">
+        <is>
+          <t>Brianna</t>
+        </is>
+      </c>
+      <c r="W16" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="X16" t="inlineStr"/>
       <c r="Y16" t="inlineStr"/>
       <c r="Z16" t="inlineStr"/>
@@ -1218,17 +1242,17 @@
       <c r="T17" t="inlineStr"/>
       <c r="U17" t="inlineStr">
         <is>
-          <t>1)</t>
+          <t>3)</t>
         </is>
       </c>
       <c r="V17" t="inlineStr">
         <is>
-          <t>DJ</t>
+          <t>Caitlin</t>
         </is>
       </c>
       <c r="W17" t="inlineStr">
         <is>
-          <t>@ Store, Equip</t>
+          <t>@ Store</t>
         </is>
       </c>
       <c r="X17" t="inlineStr"/>
@@ -1312,17 +1336,18 @@
       <c r="T18" t="inlineStr"/>
       <c r="U18" t="inlineStr">
         <is>
-          <t>2)</t>
+          <t>4)</t>
         </is>
       </c>
       <c r="V18" t="inlineStr">
         <is>
-          <t>Brianna</t>
+          <t>Carlie</t>
         </is>
       </c>
       <c r="W18" t="inlineStr">
         <is>
-          <t>@ Store</t>
+          <t>@ Store,
+Rx</t>
         </is>
       </c>
       <c r="X18" t="inlineStr"/>
@@ -1402,12 +1427,12 @@
       <c r="T19" t="inlineStr"/>
       <c r="U19" t="inlineStr">
         <is>
-          <t>3)</t>
+          <t>5)</t>
         </is>
       </c>
       <c r="V19" t="inlineStr">
         <is>
-          <t>Caitlin</t>
+          <t>Cynthia</t>
         </is>
       </c>
       <c r="W19" t="inlineStr">
@@ -1487,18 +1512,17 @@
       <c r="T20" t="inlineStr"/>
       <c r="U20" t="inlineStr">
         <is>
-          <t>4)</t>
+          <t>6)</t>
         </is>
       </c>
       <c r="V20" t="inlineStr">
         <is>
-          <t>Carlie</t>
+          <t>Ian</t>
         </is>
       </c>
       <c r="W20" t="inlineStr">
         <is>
-          <t>@ Store,
-Rx</t>
+          <t>@ Store</t>
         </is>
       </c>
       <c r="X20" t="inlineStr"/>
@@ -1590,17 +1614,18 @@
       <c r="T21" t="inlineStr"/>
       <c r="U21" t="inlineStr">
         <is>
-          <t>5)</t>
+          <t>7)</t>
         </is>
       </c>
       <c r="V21" t="inlineStr">
         <is>
-          <t>Cynthia</t>
+          <t>Jerry D</t>
         </is>
       </c>
       <c r="W21" t="inlineStr">
         <is>
-          <t>@ Store</t>
+          <t>@ Store,
+Supv Rx</t>
         </is>
       </c>
       <c r="X21" t="inlineStr"/>
@@ -1684,12 +1709,12 @@
       <c r="T22" t="inlineStr"/>
       <c r="U22" t="inlineStr">
         <is>
-          <t>6)</t>
+          <t>8)</t>
         </is>
       </c>
       <c r="V22" t="inlineStr">
         <is>
-          <t>Ian</t>
+          <t>Katherine</t>
         </is>
       </c>
       <c r="W22" t="inlineStr">
@@ -1758,18 +1783,17 @@
       <c r="T23" t="inlineStr"/>
       <c r="U23" t="inlineStr">
         <is>
-          <t>7)</t>
+          <t>9)</t>
         </is>
       </c>
       <c r="V23" t="inlineStr">
         <is>
-          <t>Jerry D</t>
+          <t>Lexi</t>
         </is>
       </c>
       <c r="W23" t="inlineStr">
         <is>
-          <t>@ Store,
-Supv Rx</t>
+          <t>@ Store</t>
         </is>
       </c>
       <c r="X23" t="inlineStr"/>
@@ -1828,12 +1852,12 @@
       <c r="T24" t="inlineStr"/>
       <c r="U24" t="inlineStr">
         <is>
-          <t>8)</t>
+          <t>10)</t>
         </is>
       </c>
       <c r="V24" t="inlineStr">
         <is>
-          <t>Katherine</t>
+          <t>Monica</t>
         </is>
       </c>
       <c r="W24" t="inlineStr">
@@ -1897,12 +1921,12 @@
       <c r="T25" t="inlineStr"/>
       <c r="U25" t="inlineStr">
         <is>
-          <t>9)</t>
+          <t>11)</t>
         </is>
       </c>
       <c r="V25" t="inlineStr">
         <is>
-          <t>Lexi</t>
+          <t>Pamela</t>
         </is>
       </c>
       <c r="W25" t="inlineStr">
@@ -1972,12 +1996,12 @@
       <c r="T26" t="inlineStr"/>
       <c r="U26" t="inlineStr">
         <is>
-          <t>10)</t>
+          <t>12)</t>
         </is>
       </c>
       <c r="V26" t="inlineStr">
         <is>
-          <t>Monica</t>
+          <t>Paul</t>
         </is>
       </c>
       <c r="W26" t="inlineStr">
@@ -2049,12 +2073,12 @@
       <c r="T27" t="inlineStr"/>
       <c r="U27" t="inlineStr">
         <is>
-          <t>11)</t>
+          <t>13)</t>
         </is>
       </c>
       <c r="V27" t="inlineStr">
         <is>
-          <t>Pamela</t>
+          <t>Sonia</t>
         </is>
       </c>
       <c r="W27" t="inlineStr">
@@ -2116,21 +2140,9 @@
         </is>
       </c>
       <c r="T28" t="inlineStr"/>
-      <c r="U28" t="inlineStr">
-        <is>
-          <t>12)</t>
-        </is>
-      </c>
-      <c r="V28" t="inlineStr">
-        <is>
-          <t>Paul</t>
-        </is>
-      </c>
-      <c r="W28" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
+      <c r="U28" t="inlineStr"/>
+      <c r="V28" t="inlineStr"/>
+      <c r="W28" t="inlineStr"/>
       <c r="X28" t="inlineStr"/>
       <c r="Y28" t="inlineStr"/>
       <c r="Z28" t="inlineStr"/>
@@ -2177,21 +2189,9 @@
         </is>
       </c>
       <c r="T29" t="inlineStr"/>
-      <c r="U29" t="inlineStr">
-        <is>
-          <t>13)</t>
-        </is>
-      </c>
-      <c r="V29" t="inlineStr">
-        <is>
-          <t>Sonia</t>
-        </is>
-      </c>
-      <c r="W29" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
+      <c r="U29" t="inlineStr"/>
+      <c r="V29" t="inlineStr"/>
+      <c r="W29" t="inlineStr"/>
       <c r="X29" t="inlineStr"/>
       <c r="Y29" t="inlineStr"/>
       <c r="Z29" t="inlineStr"/>
@@ -2239,7 +2239,11 @@
       </c>
       <c r="T30" t="inlineStr"/>
       <c r="U30" t="inlineStr"/>
-      <c r="V30" t="inlineStr"/>
+      <c r="V30" t="inlineStr">
+        <is>
+          <t>6:30 AM START</t>
+        </is>
+      </c>
       <c r="W30" t="inlineStr"/>
       <c r="X30" t="inlineStr"/>
       <c r="Y30" t="inlineStr"/>
@@ -2288,7 +2292,11 @@
       </c>
       <c r="T31" t="inlineStr"/>
       <c r="U31" t="inlineStr"/>
-      <c r="V31" t="inlineStr"/>
+      <c r="V31" t="inlineStr">
+        <is>
+          <t>MODAS-SCAN</t>
+        </is>
+      </c>
       <c r="W31" t="inlineStr"/>
       <c r="X31" t="inlineStr"/>
       <c r="Y31" t="inlineStr"/>
@@ -2319,7 +2327,7 @@
       <c r="U32" t="inlineStr"/>
       <c r="V32" t="inlineStr">
         <is>
-          <t>6:30 AM START</t>
+          <t>KELLEY #79, GAMMON MOBIL, MADISON</t>
         </is>
       </c>
       <c r="W32" t="inlineStr"/>
@@ -2377,7 +2385,7 @@
       <c r="U33" t="inlineStr"/>
       <c r="V33" t="inlineStr">
         <is>
-          <t>MODAS-SCAN</t>
+          <t>901 S GAMMON RD</t>
         </is>
       </c>
       <c r="W33" t="inlineStr"/>
@@ -2430,7 +2438,7 @@
       <c r="U34" t="inlineStr"/>
       <c r="V34" t="inlineStr">
         <is>
-          <t>KELLEY #79, GAMMON MOBIL, MADISON</t>
+          <t>https://goo.gl/maps/XZCVbczZyjz</t>
         </is>
       </c>
       <c r="W34" t="inlineStr"/>
@@ -2488,7 +2496,7 @@
       <c r="U35" t="inlineStr"/>
       <c r="V35" t="inlineStr">
         <is>
-          <t>901 S GAMMON RD</t>
+          <t xml:space="preserve">Please be careful to scan only product barcodes, and not the shelf scan tags  </t>
         </is>
       </c>
       <c r="W35" t="inlineStr"/>
@@ -2546,7 +2554,7 @@
       <c r="U36" t="inlineStr"/>
       <c r="V36" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/XZCVbczZyjz</t>
+          <t xml:space="preserve">*IL Meet is 5:00 am at IL office </t>
         </is>
       </c>
       <c r="W36" t="inlineStr"/>
@@ -2601,11 +2609,7 @@
       <c r="S37" t="inlineStr"/>
       <c r="T37" t="inlineStr"/>
       <c r="U37" t="inlineStr"/>
-      <c r="V37" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Please be careful to scan only product barcodes, and not the shelf scan tags  </t>
-        </is>
-      </c>
+      <c r="V37" t="inlineStr"/>
       <c r="W37" t="inlineStr"/>
       <c r="X37" t="inlineStr"/>
       <c r="Y37" t="inlineStr"/>
@@ -2649,13 +2653,22 @@
       </c>
       <c r="S38" t="inlineStr"/>
       <c r="T38" t="inlineStr"/>
-      <c r="U38" t="inlineStr"/>
+      <c r="U38" t="inlineStr">
+        <is>
+          <t>1)</t>
+        </is>
+      </c>
       <c r="V38" t="inlineStr">
         <is>
-          <t xml:space="preserve">*IL Meet is 5:00 am at IL office </t>
-        </is>
-      </c>
-      <c r="W38" t="inlineStr"/>
+          <t>Qiana</t>
+        </is>
+      </c>
+      <c r="W38" t="inlineStr">
+        <is>
+          <t>@ Store,
+Camry 3, Equip</t>
+        </is>
+      </c>
       <c r="X38" t="inlineStr"/>
       <c r="Y38" t="inlineStr"/>
       <c r="Z38" t="inlineStr"/>
@@ -2686,8 +2699,16 @@
       </c>
       <c r="S39" t="inlineStr"/>
       <c r="T39" t="inlineStr"/>
-      <c r="U39" t="inlineStr"/>
-      <c r="V39" t="inlineStr"/>
+      <c r="U39" t="inlineStr">
+        <is>
+          <t>2)</t>
+        </is>
+      </c>
+      <c r="V39" t="inlineStr">
+        <is>
+          <t>Angela</t>
+        </is>
+      </c>
       <c r="W39" t="inlineStr"/>
       <c r="X39" t="inlineStr"/>
       <c r="Y39" t="inlineStr"/>
@@ -2717,20 +2738,15 @@
       <c r="T40" t="inlineStr"/>
       <c r="U40" t="inlineStr">
         <is>
-          <t>1)</t>
+          <t>3)</t>
         </is>
       </c>
       <c r="V40" t="inlineStr">
         <is>
-          <t>Qiana</t>
-        </is>
-      </c>
-      <c r="W40" t="inlineStr">
-        <is>
-          <t>@ Store,
-Camry 3, Equip</t>
-        </is>
-      </c>
+          <t>Anisha</t>
+        </is>
+      </c>
+      <c r="W40" t="inlineStr"/>
       <c r="X40" t="inlineStr"/>
       <c r="Y40" t="inlineStr"/>
       <c r="Z40" t="inlineStr"/>
@@ -2775,15 +2791,20 @@
       <c r="T41" t="inlineStr"/>
       <c r="U41" t="inlineStr">
         <is>
-          <t>2)</t>
+          <t>4)</t>
         </is>
       </c>
       <c r="V41" t="inlineStr">
         <is>
-          <t>Angela</t>
-        </is>
-      </c>
-      <c r="W41" t="inlineStr"/>
+          <t>Ashley P</t>
+        </is>
+      </c>
+      <c r="W41" t="inlineStr">
+        <is>
+          <t>Driver,
+Silver Van</t>
+        </is>
+      </c>
       <c r="X41" t="inlineStr"/>
       <c r="Y41" t="inlineStr"/>
       <c r="Z41" t="inlineStr"/>
@@ -2828,12 +2849,12 @@
       <c r="T42" t="inlineStr"/>
       <c r="U42" t="inlineStr">
         <is>
-          <t>3)</t>
+          <t>5)</t>
         </is>
       </c>
       <c r="V42" t="inlineStr">
         <is>
-          <t>Anisha</t>
+          <t>Kayla</t>
         </is>
       </c>
       <c r="W42" t="inlineStr"/>
@@ -2869,20 +2890,15 @@
       <c r="T43" t="inlineStr"/>
       <c r="U43" t="inlineStr">
         <is>
-          <t>4)</t>
+          <t>6)</t>
         </is>
       </c>
       <c r="V43" t="inlineStr">
         <is>
-          <t>Ashley P</t>
-        </is>
-      </c>
-      <c r="W43" t="inlineStr">
-        <is>
-          <t>Driver,
-Silver Van</t>
-        </is>
-      </c>
+          <t>Nate</t>
+        </is>
+      </c>
+      <c r="W43" t="inlineStr"/>
       <c r="X43" t="inlineStr"/>
       <c r="Y43" t="inlineStr"/>
       <c r="Z43" t="inlineStr"/>
@@ -2913,16 +2929,8 @@
       <c r="R44" t="inlineStr"/>
       <c r="S44" t="inlineStr"/>
       <c r="T44" t="inlineStr"/>
-      <c r="U44" t="inlineStr">
-        <is>
-          <t>5)</t>
-        </is>
-      </c>
-      <c r="V44" t="inlineStr">
-        <is>
-          <t>Kayla</t>
-        </is>
-      </c>
+      <c r="U44" t="inlineStr"/>
+      <c r="V44" t="inlineStr"/>
       <c r="W44" t="inlineStr"/>
       <c r="X44" t="inlineStr"/>
       <c r="Y44" t="inlineStr"/>
@@ -2958,16 +2966,8 @@
       </c>
       <c r="S45" t="inlineStr"/>
       <c r="T45" t="inlineStr"/>
-      <c r="U45" t="inlineStr">
-        <is>
-          <t>6)</t>
-        </is>
-      </c>
-      <c r="V45" t="inlineStr">
-        <is>
-          <t>Nate</t>
-        </is>
-      </c>
+      <c r="U45" t="inlineStr"/>
+      <c r="V45" t="inlineStr"/>
       <c r="W45" t="inlineStr"/>
       <c r="X45" t="inlineStr"/>
       <c r="Y45" t="inlineStr"/>
@@ -3004,7 +3004,11 @@
       <c r="S46" t="inlineStr"/>
       <c r="T46" t="inlineStr"/>
       <c r="U46" t="inlineStr"/>
-      <c r="V46" t="inlineStr"/>
+      <c r="V46" t="inlineStr">
+        <is>
+          <t>7:00 AM START</t>
+        </is>
+      </c>
       <c r="W46" t="inlineStr"/>
       <c r="X46" t="inlineStr"/>
       <c r="Y46" t="inlineStr"/>
@@ -3041,7 +3045,11 @@
       <c r="S47" t="inlineStr"/>
       <c r="T47" t="inlineStr"/>
       <c r="U47" t="inlineStr"/>
-      <c r="V47" t="inlineStr"/>
+      <c r="V47" t="inlineStr">
+        <is>
+          <t>DC5-FINANCIAL</t>
+        </is>
+      </c>
       <c r="W47" t="inlineStr"/>
       <c r="X47" t="inlineStr"/>
       <c r="Y47" t="inlineStr"/>
@@ -3076,7 +3084,7 @@
       <c r="U48" t="inlineStr"/>
       <c r="V48" t="inlineStr">
         <is>
-          <t>7:00 AM START</t>
+          <t>SALE INVENTORY</t>
         </is>
       </c>
       <c r="W48" t="inlineStr"/>
@@ -3125,7 +3133,7 @@
       <c r="U49" t="inlineStr"/>
       <c r="V49" t="inlineStr">
         <is>
-          <t>DC5-FINANCIAL</t>
+          <t>CONTACT IS SUNNY (HE IS THE SELLER)</t>
         </is>
       </c>
       <c r="W49" t="inlineStr"/>
@@ -3170,7 +3178,7 @@
       <c r="U50" t="inlineStr"/>
       <c r="V50" t="inlineStr">
         <is>
-          <t>SALE INVENTORY</t>
+          <t>ZZIP STOP, WONEWOC</t>
         </is>
       </c>
       <c r="W50" t="inlineStr"/>
@@ -3211,7 +3219,7 @@
       <c r="U51" t="inlineStr"/>
       <c r="V51" t="inlineStr">
         <is>
-          <t>CONTACT IS SUNNY (HE IS THE SELLER)</t>
+          <t>300 CENTER ST</t>
         </is>
       </c>
       <c r="W51" t="inlineStr"/>
@@ -3269,7 +3277,7 @@
       <c r="U52" t="inlineStr"/>
       <c r="V52" t="inlineStr">
         <is>
-          <t>ZZIP STOP, WONEWOC</t>
+          <t>https://maps.app.goo.gl/qbVnN7tVAnoCsvfL9</t>
         </is>
       </c>
       <c r="W52" t="inlineStr"/>
@@ -3316,11 +3324,7 @@
       <c r="S53" t="inlineStr"/>
       <c r="T53" t="inlineStr"/>
       <c r="U53" t="inlineStr"/>
-      <c r="V53" t="inlineStr">
-        <is>
-          <t>300 CENTER ST</t>
-        </is>
-      </c>
+      <c r="V53" t="inlineStr"/>
       <c r="W53" t="inlineStr"/>
       <c r="X53" t="inlineStr"/>
       <c r="Y53" t="inlineStr"/>
@@ -3368,13 +3372,21 @@
       </c>
       <c r="S54" t="inlineStr"/>
       <c r="T54" t="inlineStr"/>
-      <c r="U54" t="inlineStr"/>
+      <c r="U54" t="inlineStr">
+        <is>
+          <t>1)</t>
+        </is>
+      </c>
       <c r="V54" t="inlineStr">
         <is>
-          <t>https://maps.app.goo.gl/qbVnN7tVAnoCsvfL9</t>
-        </is>
-      </c>
-      <c r="W54" t="inlineStr"/>
+          <t>Sarah</t>
+        </is>
+      </c>
+      <c r="W54" t="inlineStr">
+        <is>
+          <t>@ Store, Equip</t>
+        </is>
+      </c>
       <c r="X54" t="inlineStr"/>
       <c r="Y54" t="inlineStr"/>
       <c r="Z54" t="inlineStr"/>
@@ -3446,21 +3458,9 @@
       </c>
       <c r="S56" t="inlineStr"/>
       <c r="T56" t="inlineStr"/>
-      <c r="U56" t="inlineStr">
-        <is>
-          <t>1)</t>
-        </is>
-      </c>
-      <c r="V56" t="inlineStr">
-        <is>
-          <t>Sarah</t>
-        </is>
-      </c>
-      <c r="W56" t="inlineStr">
-        <is>
-          <t>@ Store, Equip</t>
-        </is>
-      </c>
+      <c r="U56" t="inlineStr"/>
+      <c r="V56" t="inlineStr"/>
+      <c r="W56" t="inlineStr"/>
       <c r="X56" t="inlineStr"/>
       <c r="Y56" t="inlineStr"/>
       <c r="Z56" t="inlineStr"/>
@@ -3496,7 +3496,11 @@
       <c r="S57" t="inlineStr"/>
       <c r="T57" t="inlineStr"/>
       <c r="U57" t="inlineStr"/>
-      <c r="V57" t="inlineStr"/>
+      <c r="V57" t="inlineStr">
+        <is>
+          <t>6:30 AM START</t>
+        </is>
+      </c>
       <c r="W57" t="inlineStr"/>
       <c r="X57" t="inlineStr"/>
       <c r="Y57" t="inlineStr"/>
@@ -3533,7 +3537,11 @@
       <c r="S58" t="inlineStr"/>
       <c r="T58" t="inlineStr"/>
       <c r="U58" t="inlineStr"/>
-      <c r="V58" t="inlineStr"/>
+      <c r="V58" t="inlineStr">
+        <is>
+          <t>MODAS-SCAN</t>
+        </is>
+      </c>
       <c r="W58" t="inlineStr"/>
       <c r="X58" t="inlineStr"/>
       <c r="Y58" t="inlineStr"/>
@@ -3564,7 +3572,7 @@
       <c r="U59" t="inlineStr"/>
       <c r="V59" t="inlineStr">
         <is>
-          <t>6:30 AM START</t>
+          <t>KELLEY #37, ROCKTON MOBIL</t>
         </is>
       </c>
       <c r="W59" t="inlineStr"/>
@@ -3597,7 +3605,7 @@
       <c r="U60" t="inlineStr"/>
       <c r="V60" t="inlineStr">
         <is>
-          <t>MODAS-SCAN</t>
+          <t>111 N BLACKHAWK BLVD</t>
         </is>
       </c>
       <c r="W60" t="inlineStr"/>
@@ -3630,7 +3638,7 @@
       <c r="U61" t="inlineStr"/>
       <c r="V61" t="inlineStr">
         <is>
-          <t>KELLEY #37, ROCKTON MOBIL</t>
+          <t>https://goo.gl/maps/8XLAYoWmhuu</t>
         </is>
       </c>
       <c r="W61" t="inlineStr"/>
@@ -3663,7 +3671,7 @@
       <c r="U62" t="inlineStr"/>
       <c r="V62" t="inlineStr">
         <is>
-          <t>111 N BLACKHAWK BLVD</t>
+          <t xml:space="preserve">Please be careful to scan only product barcodes, and not the shelf scan tags   </t>
         </is>
       </c>
       <c r="W62" t="inlineStr"/>
@@ -3694,11 +3702,7 @@
       <c r="S63" t="inlineStr"/>
       <c r="T63" t="inlineStr"/>
       <c r="U63" t="inlineStr"/>
-      <c r="V63" t="inlineStr">
-        <is>
-          <t>https://goo.gl/maps/8XLAYoWmhuu</t>
-        </is>
-      </c>
+      <c r="V63" t="inlineStr"/>
       <c r="W63" t="inlineStr"/>
       <c r="X63" t="inlineStr"/>
       <c r="Y63" t="inlineStr"/>
@@ -3726,13 +3730,21 @@
       <c r="R64" t="inlineStr"/>
       <c r="S64" t="inlineStr"/>
       <c r="T64" t="inlineStr"/>
-      <c r="U64" t="inlineStr"/>
+      <c r="U64" t="inlineStr">
+        <is>
+          <t>1)</t>
+        </is>
+      </c>
       <c r="V64" t="inlineStr">
         <is>
-          <t xml:space="preserve">Please be careful to scan only product barcodes, and not the shelf scan tags   </t>
-        </is>
-      </c>
-      <c r="W64" t="inlineStr"/>
+          <t>Mike G</t>
+        </is>
+      </c>
+      <c r="W64" t="inlineStr">
+        <is>
+          <t>Equip</t>
+        </is>
+      </c>
       <c r="X64" t="inlineStr"/>
       <c r="Y64" t="inlineStr"/>
       <c r="Z64" t="inlineStr"/>
@@ -3759,8 +3771,16 @@
       <c r="R65" t="inlineStr"/>
       <c r="S65" t="inlineStr"/>
       <c r="T65" t="inlineStr"/>
-      <c r="U65" t="inlineStr"/>
-      <c r="V65" t="inlineStr"/>
+      <c r="U65" t="inlineStr">
+        <is>
+          <t>2)</t>
+        </is>
+      </c>
+      <c r="V65" t="inlineStr">
+        <is>
+          <t>Emily L</t>
+        </is>
+      </c>
       <c r="W65" t="inlineStr"/>
       <c r="X65" t="inlineStr"/>
       <c r="Y65" t="inlineStr"/>
@@ -3790,19 +3810,15 @@
       <c r="T66" t="inlineStr"/>
       <c r="U66" t="inlineStr">
         <is>
-          <t>1)</t>
+          <t>3)</t>
         </is>
       </c>
       <c r="V66" t="inlineStr">
         <is>
-          <t>Mike G</t>
-        </is>
-      </c>
-      <c r="W66" t="inlineStr">
-        <is>
-          <t>Equip</t>
-        </is>
-      </c>
+          <t>Joseph</t>
+        </is>
+      </c>
+      <c r="W66" t="inlineStr"/>
       <c r="X66" t="inlineStr"/>
       <c r="Y66" t="inlineStr"/>
       <c r="Z66" t="inlineStr"/>
@@ -3831,12 +3847,12 @@
       <c r="T67" t="inlineStr"/>
       <c r="U67" t="inlineStr">
         <is>
-          <t>2)</t>
+          <t>4)</t>
         </is>
       </c>
       <c r="V67" t="inlineStr">
         <is>
-          <t>Emily L</t>
+          <t>Justin Lee</t>
         </is>
       </c>
       <c r="W67" t="inlineStr"/>
@@ -3868,12 +3884,12 @@
       <c r="T68" t="inlineStr"/>
       <c r="U68" t="inlineStr">
         <is>
-          <t>3)</t>
+          <t>5)</t>
         </is>
       </c>
       <c r="V68" t="inlineStr">
         <is>
-          <t>Joseph</t>
+          <t>Tina E</t>
         </is>
       </c>
       <c r="W68" t="inlineStr"/>
@@ -3882,80 +3898,6 @@
       <c r="Z68" t="inlineStr"/>
       <c r="AA68" t="inlineStr"/>
     </row>
-    <row r="69">
-      <c r="A69" t="inlineStr"/>
-      <c r="B69" t="inlineStr"/>
-      <c r="C69" t="inlineStr"/>
-      <c r="D69" t="inlineStr"/>
-      <c r="E69" t="inlineStr"/>
-      <c r="F69" t="inlineStr"/>
-      <c r="G69" t="inlineStr"/>
-      <c r="H69" t="inlineStr"/>
-      <c r="I69" t="inlineStr"/>
-      <c r="J69" t="inlineStr"/>
-      <c r="K69" t="inlineStr"/>
-      <c r="L69" t="inlineStr"/>
-      <c r="M69" t="inlineStr"/>
-      <c r="N69" t="inlineStr"/>
-      <c r="O69" t="inlineStr"/>
-      <c r="P69" t="inlineStr"/>
-      <c r="Q69" t="inlineStr"/>
-      <c r="R69" t="inlineStr"/>
-      <c r="S69" t="inlineStr"/>
-      <c r="T69" t="inlineStr"/>
-      <c r="U69" t="inlineStr">
-        <is>
-          <t>4)</t>
-        </is>
-      </c>
-      <c r="V69" t="inlineStr">
-        <is>
-          <t>Justin Lee</t>
-        </is>
-      </c>
-      <c r="W69" t="inlineStr"/>
-      <c r="X69" t="inlineStr"/>
-      <c r="Y69" t="inlineStr"/>
-      <c r="Z69" t="inlineStr"/>
-      <c r="AA69" t="inlineStr"/>
-    </row>
-    <row r="70">
-      <c r="A70" t="inlineStr"/>
-      <c r="B70" t="inlineStr"/>
-      <c r="C70" t="inlineStr"/>
-      <c r="D70" t="inlineStr"/>
-      <c r="E70" t="inlineStr"/>
-      <c r="F70" t="inlineStr"/>
-      <c r="G70" t="inlineStr"/>
-      <c r="H70" t="inlineStr"/>
-      <c r="I70" t="inlineStr"/>
-      <c r="J70" t="inlineStr"/>
-      <c r="K70" t="inlineStr"/>
-      <c r="L70" t="inlineStr"/>
-      <c r="M70" t="inlineStr"/>
-      <c r="N70" t="inlineStr"/>
-      <c r="O70" t="inlineStr"/>
-      <c r="P70" t="inlineStr"/>
-      <c r="Q70" t="inlineStr"/>
-      <c r="R70" t="inlineStr"/>
-      <c r="S70" t="inlineStr"/>
-      <c r="T70" t="inlineStr"/>
-      <c r="U70" t="inlineStr">
-        <is>
-          <t>5)</t>
-        </is>
-      </c>
-      <c r="V70" t="inlineStr">
-        <is>
-          <t>Tina E</t>
-        </is>
-      </c>
-      <c r="W70" t="inlineStr"/>
-      <c r="X70" t="inlineStr"/>
-      <c r="Y70" t="inlineStr"/>
-      <c r="Z70" t="inlineStr"/>
-      <c r="AA70" t="inlineStr"/>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/08-17-25 to 08-23-25 Madison Schedule.xlsx
+++ b/08-17-25 to 08-23-25 Madison Schedule.xlsx
@@ -977,7 +977,7 @@
       <c r="Y13" t="inlineStr"/>
       <c r="Z13" t="inlineStr">
         <is>
-          <t>*IL Meet is 4:30 am at IL office</t>
+          <t>*IL Meet is 4:45 am at IL office</t>
         </is>
       </c>
       <c r="AA13" t="inlineStr"/>
